--- a/geolocation data set for tanakpur.xlsx
+++ b/geolocation data set for tanakpur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagar\Desktop\optimisation of operations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCA0D38-4378-4B66-928D-C5E60D665316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627161B6-FD20-413D-9016-259094A7F102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>29.068450,80.109439</t>
+  </si>
+  <si>
+    <t>Saumya Tiwari</t>
+  </si>
+  <si>
+    <t>House no. 8</t>
+  </si>
+  <si>
+    <t>29.080523,80.110608</t>
   </si>
 </sst>
 </file>
@@ -399,7 +408,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,6 +502,21 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>9627879873</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
